--- a/Praca Inżynierska/dane/excel/moc-30.xlsx
+++ b/Praca Inżynierska/dane/excel/moc-30.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Praca Inżynierska\dane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comarch\Documents\NoweRepo\nowe\Projekt_inz\Praca Inżynierska\dane\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="moc-30" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="240">
   <si>
     <t>ID beacon'a</t>
   </si>
@@ -670,6 +671,75 @@
   </si>
   <si>
     <t>Śr. RSSI po odsianiu</t>
+  </si>
+  <si>
+    <t>n - moja metoda</t>
+  </si>
+  <si>
+    <t>n - metoda excel</t>
+  </si>
+  <si>
+    <t>A - moja metoda</t>
+  </si>
+  <si>
+    <t>A - metoda excel</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN </t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Pomiar 1</t>
+  </si>
+  <si>
+    <t>Pomiar 2</t>
+  </si>
+  <si>
+    <t>Pomiar 3</t>
+  </si>
+  <si>
+    <t>Pomiar 4</t>
+  </si>
+  <si>
+    <t>Pomiar 5</t>
+  </si>
+  <si>
+    <t>Pomiar 6</t>
+  </si>
+  <si>
+    <t>Pomiar 7</t>
+  </si>
+  <si>
+    <t>Pomiar 8</t>
+  </si>
+  <si>
+    <t>Pomiar 9</t>
+  </si>
+  <si>
+    <t>Pomiar 10</t>
+  </si>
+  <si>
+    <t>Średnia</t>
+  </si>
+  <si>
+    <t>d - moja metoda</t>
+  </si>
+  <si>
+    <t>d - motoda excel</t>
+  </si>
+  <si>
+    <t>d-moja metoda</t>
+  </si>
+  <si>
+    <t>Wyliczenia ze średniej z 10 pomiarów</t>
+  </si>
+  <si>
+    <t>Wyliczenia z jednego pomiaru</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1126,6 +1196,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1171,8 +1319,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4250,11 +4412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410091920"/>
-        <c:axId val="410091528"/>
+        <c:axId val="407132992"/>
+        <c:axId val="407138480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410091920"/>
+        <c:axId val="407132992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,12 +4473,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410091528"/>
+        <c:crossAx val="407138480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410091528"/>
+        <c:axId val="407138480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-80"/>
@@ -4374,7 +4536,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410091920"/>
+        <c:crossAx val="407132992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4632,11 +4794,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="473475992"/>
-        <c:axId val="473477168"/>
+        <c:axId val="407131424"/>
+        <c:axId val="407131032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="473475992"/>
+        <c:axId val="407131424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,7 +4841,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473477168"/>
+        <c:crossAx val="407131032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4687,7 +4849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473477168"/>
+        <c:axId val="407131032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,7 +4900,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473475992"/>
+        <c:crossAx val="407131424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4750,6 +4912,1236 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średnia z 10 pomiarów</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywista odległość</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Moja metoda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AC$2:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.40327550856876537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83234421229490518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2688251996282411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97491112388832046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0009415158044996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6732483426581195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5506991350936401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6188034950910275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Metoda excel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AD$2:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1592512629216731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62704849768239324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3919060728758208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84560380968445492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88881470421762299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.348957063214216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2141542692419804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4806008812693792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="268893560"/>
+        <c:axId val="268891600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="268893560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268891600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="268891600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268893560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średnia z 10 pomiarów</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywista odległość</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AG$2:$AG$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.40327550856876537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88902127971938749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5058638083372888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88902127971938749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0142161953502802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9598483394116848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5506991350936401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5506991350936401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AH$2:$AH$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1592512629216731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71025104497715608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.924411213436779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71025104497715608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91124127016132184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1676769002406995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2141542692419804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2141542692419804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520183344"/>
+        <c:axId val="520183736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520183344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520183736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="520183736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520183344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4828,6 +6220,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5886,6 +7358,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5935,6 +8439,73 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Wykres 4"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>187035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6216,8 +8787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R9"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6299,7 +8870,7 @@
         <v>0.3</v>
       </c>
       <c r="P2">
-        <f>COUNTIFS(L:L,O2,N:N,"")</f>
+        <f t="shared" ref="P2:P9" si="0">COUNTIFS(L:L,O2,N:N,"")</f>
         <v>26</v>
       </c>
       <c r="Q2">
@@ -6346,15 +8917,15 @@
         <v>0.5</v>
       </c>
       <c r="P3">
-        <f>COUNTIFS(L:L,O3,N:N,"")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q9" si="0">AVERAGEIFS(M:M,L:L,O3)</f>
+        <f t="shared" ref="Q3:Q9" si="1">AVERAGEIFS(M:M,L:L,O3)</f>
         <v>-93.41379310344827</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R9" si="1">AVERAGEIFS(N:N,$L:$L,$O3)</f>
+        <f t="shared" ref="R3:R9" si="2">AVERAGEIFS(N:N,$L:$L,$O3)</f>
         <v>-93.52</v>
       </c>
     </row>
@@ -6390,17 +8961,17 @@
         <v>0.75</v>
       </c>
       <c r="P4">
-        <f>COUNTIFS(L:L,O4,N:N,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>-96.692307692307693</v>
-      </c>
-      <c r="R4">
         <f t="shared" si="1"/>
         <v>-96.692307692307693</v>
       </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>-96.692307692307693</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6437,15 +9008,15 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <f>COUNTIFS(L:L,O5,N:N,"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-95.066666666666663</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-94.892857142857139</v>
       </c>
     </row>
@@ -6484,15 +9055,15 @@
         <v>1.5</v>
       </c>
       <c r="P6">
-        <f>COUNTIFS(L:L,O6,N:N,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-95.117647058823536</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-95</v>
       </c>
     </row>
@@ -6531,15 +9102,15 @@
         <v>2</v>
       </c>
       <c r="P7">
-        <f>COUNTIFS(L:L,O7,N:N,"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-98.764705882352942</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-98.4</v>
       </c>
     </row>
@@ -6578,17 +9149,17 @@
         <v>3.5</v>
       </c>
       <c r="P8">
-        <f>COUNTIFS(L:L,O8,N:N,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>-102</v>
-      </c>
-      <c r="R8">
         <f t="shared" si="1"/>
         <v>-102</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>-102</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6625,15 +9196,15 @@
         <v>4.5</v>
       </c>
       <c r="P9">
-        <f>COUNTIFS(L:L,O9,N:N,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-102.33333333333333</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-102.33333333333333</v>
       </c>
     </row>
@@ -14243,4 +16814,3348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH210"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" t="s">
+        <v>231</v>
+      </c>
+      <c r="X1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>-88</v>
+      </c>
+      <c r="I2">
+        <v>-88</v>
+      </c>
+      <c r="M2">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(G:G,M2)+1</f>
+        <v>96</v>
+      </c>
+      <c r="P2">
+        <f ca="1">INDIRECT("I"&amp;RANDBETWEEN($N2,$O2))</f>
+        <v>-88</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Y2" ca="1" si="0">INDIRECT("I"&amp;RANDBETWEEN($N2,$O2))</f>
+        <v>-88</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-88</v>
+      </c>
+      <c r="Z2">
+        <f ca="1">AVERAGE(P2:Y2)</f>
+        <v>-88</v>
+      </c>
+      <c r="AA2" s="8">
+        <f ca="1">POWER(10,-((Z2-$B$5)/10*$B$3))</f>
+        <v>0.40327550856876537</v>
+      </c>
+      <c r="AB2" s="9">
+        <f ca="1">POWER(10,-((Z2-$C$5)/10*$C$3))</f>
+        <v>0.1592512629216731</v>
+      </c>
+      <c r="AC2" s="9">
+        <f ca="1">IF(AA2&gt;15,15,AA2)</f>
+        <v>0.40327550856876537</v>
+      </c>
+      <c r="AD2" s="9">
+        <f ca="1">IF(AB2&gt;15,15,AB2)</f>
+        <v>0.1592512629216731</v>
+      </c>
+      <c r="AE2" s="10">
+        <f ca="1">POWER(10,-((P2-$B$5)/10*$B$3))</f>
+        <v>0.40327550856876537</v>
+      </c>
+      <c r="AF2" s="9">
+        <f ca="1">POWER(10,-((P2-$C$5)/10*$C$3))</f>
+        <v>0.1592512629216731</v>
+      </c>
+      <c r="AG2" s="9">
+        <f ca="1">IF(AE2&gt;15,15,AE2)</f>
+        <v>0.40327550856876537</v>
+      </c>
+      <c r="AH2" s="11">
+        <f ca="1">IF(AF2&gt;15,15,AF2)</f>
+        <v>0.1592512629216731</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0.5721838481055681</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0822149937099999</v>
+      </c>
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>-88</v>
+      </c>
+      <c r="I3">
+        <v>-88</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <f>O2+1</f>
+        <v>97</v>
+      </c>
+      <c r="O3">
+        <f>N3+COUNTIF(G:G,M3)-1</f>
+        <v>121</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:Y28" ca="1" si="1">INDIRECT("I"&amp;RANDBETWEEN($N3,$O3))</f>
+        <v>-94</v>
+      </c>
+      <c r="Q3">
+        <f ca="1">INDIRECT("I"&amp;RANDBETWEEN($N3,$O3))</f>
+        <v>-94</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-93</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-93</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-93</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-93</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-93</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z33" ca="1" si="2">AVERAGE(P3:Y3)</f>
+        <v>-93.5</v>
+      </c>
+      <c r="AA3" s="8">
+        <f ca="1">POWER(10,-((Z3-$B$5)/10*$B$3))</f>
+        <v>0.83234421229490518</v>
+      </c>
+      <c r="AB3" s="9">
+        <f ca="1">POWER(10,-((Z3-$C$5)/10*$C$3))</f>
+        <v>0.62704849768239324</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" ref="AC3:AD33" ca="1" si="3">IF(AA3&gt;15,15,AA3)</f>
+        <v>0.83234421229490518</v>
+      </c>
+      <c r="AD3" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62704849768239324</v>
+      </c>
+      <c r="AE3" s="10">
+        <f t="shared" ref="AE3:AE33" ca="1" si="4">POWER(10,-((P3-$B$5)/10*$B$3))</f>
+        <v>0.88902127971938749</v>
+      </c>
+      <c r="AF3" s="9">
+        <f t="shared" ref="AF3:AF33" ca="1" si="5">POWER(10,-((P3-$C$5)/10*$C$3))</f>
+        <v>0.71025104497715608</v>
+      </c>
+      <c r="AG3" s="9">
+        <f t="shared" ref="AG3:AH33" ca="1" si="6">IF(AE3&gt;15,15,AE3)</f>
+        <v>0.88902127971938749</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.71025104497715608</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>-88</v>
+      </c>
+      <c r="I4">
+        <v>-88</v>
+      </c>
+      <c r="M4">
+        <v>0.75</v>
+      </c>
+      <c r="N4">
+        <f>O3+1</f>
+        <v>122</v>
+      </c>
+      <c r="O4">
+        <f>N4+COUNTIF(G:G,M4)-1</f>
+        <v>147</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-98</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-98</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-97</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-98</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-98</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-97</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ca="1" si="2"/>
+        <v>-96.7</v>
+      </c>
+      <c r="AA4" s="8">
+        <f ca="1">POWER(10,-((Z4-$B$5)/10*$B$3))</f>
+        <v>1.2688251996282411</v>
+      </c>
+      <c r="AB4" s="9">
+        <f ca="1">POWER(10,-((Z4-$C$5)/10*$C$3))</f>
+        <v>1.3919060728758208</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2688251996282411</v>
+      </c>
+      <c r="AD4" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3919060728758208</v>
+      </c>
+      <c r="AE4" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5058638083372888</v>
+      </c>
+      <c r="AF4" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.924411213436779</v>
+      </c>
+      <c r="AG4" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.5058638083372888</v>
+      </c>
+      <c r="AH4" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.924411213436779</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>-94.892857142857139</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-95.373000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>-88</v>
+      </c>
+      <c r="I5">
+        <v>-88</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N33" si="7">O4+1</f>
+        <v>148</v>
+      </c>
+      <c r="O5">
+        <f>N5+COUNTIF(G:G,M5)-1</f>
+        <v>175</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-94.7</v>
+      </c>
+      <c r="AA5" s="8">
+        <f ca="1">POWER(10,-((Z5-$B$5)/10*$B$3))</f>
+        <v>0.97491112388832046</v>
+      </c>
+      <c r="AB5" s="9">
+        <f ca="1">POWER(10,-((Z5-$C$5)/10*$C$3))</f>
+        <v>0.84560380968445492</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.97491112388832046</v>
+      </c>
+      <c r="AD5" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.84560380968445492</v>
+      </c>
+      <c r="AE5" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.88902127971938749</v>
+      </c>
+      <c r="AF5" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71025104497715608</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.88902127971938749</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.71025104497715608</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
+        <v>-88</v>
+      </c>
+      <c r="I6">
+        <v>-88</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="O6">
+        <f>N6+COUNTIF(G:G,M6)-1</f>
+        <v>191</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ca="1" si="2"/>
+        <v>-94.9</v>
+      </c>
+      <c r="AA6" s="8">
+        <f ca="1">POWER(10,-((Z6-$B$5)/10*$B$3))</f>
+        <v>1.0009415158044996</v>
+      </c>
+      <c r="AB6" s="9">
+        <f ca="1">POWER(10,-((Z6-$C$5)/10*$C$3))</f>
+        <v>0.88881470421762299</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0009415158044996</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.88881470421762299</v>
+      </c>
+      <c r="AE6" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0142161953502802</v>
+      </c>
+      <c r="AF6" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.91124127016132184</v>
+      </c>
+      <c r="AG6" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0142161953502802</v>
+      </c>
+      <c r="AH6" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.91124127016132184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>-88</v>
+      </c>
+      <c r="I7">
+        <v>-88</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="O7">
+        <f>N7+COUNTIF(G:G,M7)-1</f>
+        <v>206</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-99</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-97</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-98</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-99</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-97</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-99</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-99</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-98.8</v>
+      </c>
+      <c r="AA7" s="8">
+        <f ca="1">POWER(10,-((Z7-$B$5)/10*$B$3))</f>
+        <v>1.6732483426581195</v>
+      </c>
+      <c r="AB7" s="9">
+        <f ca="1">POWER(10,-((Z7-$C$5)/10*$C$3))</f>
+        <v>2.348957063214216</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6732483426581195</v>
+      </c>
+      <c r="AD7" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.348957063214216</v>
+      </c>
+      <c r="AE7" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9598483394116848</v>
+      </c>
+      <c r="AF7" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1676769002406995</v>
+      </c>
+      <c r="AG7" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.9598483394116848</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.1676769002406995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>-88</v>
+      </c>
+      <c r="I8">
+        <v>-88</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="O8">
+        <f>N8+COUNTIF(G:G,M8)-1</f>
+        <v>206</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="11"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>-88</v>
+      </c>
+      <c r="I9">
+        <v>-88</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="O9">
+        <f>N9+COUNTIF(G:G,M9)-1</f>
+        <v>206</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="11"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0.3</v>
+      </c>
+      <c r="H10">
+        <v>-88</v>
+      </c>
+      <c r="I10">
+        <v>-88</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="O10">
+        <f>N10+COUNTIF(G:G,M10)-1</f>
+        <v>207</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="AA10" s="8">
+        <f ca="1">POWER(10,-((Z10-$B$5)/10*$B$3))</f>
+        <v>2.5506991350936401</v>
+      </c>
+      <c r="AB10" s="9">
+        <f ca="1">POWER(10,-((Z10-$C$5)/10*$C$3))</f>
+        <v>5.2141542692419804</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5506991350936401</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.2141542692419804</v>
+      </c>
+      <c r="AE10" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5506991350936401</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2141542692419804</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.5506991350936401</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2141542692419804</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>-88</v>
+      </c>
+      <c r="I11">
+        <v>-88</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="O11">
+        <f>N11+COUNTIF(G:G,M11)-1</f>
+        <v>207</v>
+      </c>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="11"/>
+    </row>
+    <row r="12" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>-88</v>
+      </c>
+      <c r="I12">
+        <v>-88</v>
+      </c>
+      <c r="M12">
+        <v>4.5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="O12">
+        <f>N12+COUNTIF(G:G,M12)-1</f>
+        <v>210</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-103</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-103</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102.2</v>
+      </c>
+      <c r="AA12" s="8">
+        <f ca="1">POWER(10,-((Z12-$B$5)/10*$B$3))</f>
+        <v>2.6188034950910275</v>
+      </c>
+      <c r="AB12" s="9">
+        <f ca="1">POWER(10,-((Z12-$C$5)/10*$C$3))</f>
+        <v>5.4806008812693792</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6188034950910275</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.4806008812693792</v>
+      </c>
+      <c r="AE12" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5506991350936401</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2141542692419804</v>
+      </c>
+      <c r="AG12" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.5506991350936401</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2141542692419804</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+      <c r="H13">
+        <v>-88</v>
+      </c>
+      <c r="I13">
+        <v>-88</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0.3</v>
+      </c>
+      <c r="H14">
+        <v>-88</v>
+      </c>
+      <c r="I14">
+        <v>-88</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <v>-88</v>
+      </c>
+      <c r="I15">
+        <v>-88</v>
+      </c>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0.3</v>
+      </c>
+      <c r="H16">
+        <v>-88</v>
+      </c>
+      <c r="I16">
+        <v>-88</v>
+      </c>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+    </row>
+    <row r="17" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.3</v>
+      </c>
+      <c r="H17">
+        <v>-88</v>
+      </c>
+      <c r="I17">
+        <v>-88</v>
+      </c>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+    </row>
+    <row r="18" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0.3</v>
+      </c>
+      <c r="H18">
+        <v>-88</v>
+      </c>
+      <c r="I18">
+        <v>-88</v>
+      </c>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+    </row>
+    <row r="19" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0.3</v>
+      </c>
+      <c r="H19">
+        <v>-88</v>
+      </c>
+      <c r="I19">
+        <v>-88</v>
+      </c>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+    </row>
+    <row r="20" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.3</v>
+      </c>
+      <c r="H20">
+        <v>-88</v>
+      </c>
+      <c r="I20">
+        <v>-88</v>
+      </c>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+    </row>
+    <row r="21" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0.3</v>
+      </c>
+      <c r="H21">
+        <v>-88</v>
+      </c>
+      <c r="I21">
+        <v>-88</v>
+      </c>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+    </row>
+    <row r="22" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0.3</v>
+      </c>
+      <c r="H22">
+        <v>-88</v>
+      </c>
+      <c r="I22">
+        <v>-88</v>
+      </c>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+    </row>
+    <row r="23" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0.3</v>
+      </c>
+      <c r="H23">
+        <v>-88</v>
+      </c>
+      <c r="I23">
+        <v>-88</v>
+      </c>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+    </row>
+    <row r="24" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24">
+        <v>-88</v>
+      </c>
+      <c r="I24">
+        <v>-88</v>
+      </c>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+    </row>
+    <row r="25" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0.3</v>
+      </c>
+      <c r="H25">
+        <v>-88</v>
+      </c>
+      <c r="I25">
+        <v>-88</v>
+      </c>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+    </row>
+    <row r="26" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26">
+        <v>-88</v>
+      </c>
+      <c r="I26">
+        <v>-88</v>
+      </c>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+    </row>
+    <row r="27" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="H27">
+        <v>-88</v>
+      </c>
+      <c r="I27">
+        <v>-88</v>
+      </c>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+    </row>
+    <row r="28" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0.3</v>
+      </c>
+      <c r="H28">
+        <v>-88</v>
+      </c>
+      <c r="I28">
+        <v>-88</v>
+      </c>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+    </row>
+    <row r="29" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0.3</v>
+      </c>
+      <c r="H29">
+        <v>-88</v>
+      </c>
+      <c r="I29">
+        <v>-88</v>
+      </c>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+    </row>
+    <row r="30" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="H30">
+        <v>-88</v>
+      </c>
+      <c r="I30">
+        <v>-88</v>
+      </c>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+    </row>
+    <row r="31" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31">
+        <v>-88</v>
+      </c>
+      <c r="I31">
+        <v>-88</v>
+      </c>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+    </row>
+    <row r="32" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0.3</v>
+      </c>
+      <c r="H32">
+        <v>-88</v>
+      </c>
+      <c r="I32">
+        <v>-88</v>
+      </c>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+    </row>
+    <row r="33" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>-88</v>
+      </c>
+      <c r="I33">
+        <v>-88</v>
+      </c>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+    </row>
+    <row r="34" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0.3</v>
+      </c>
+      <c r="H34">
+        <v>-88</v>
+      </c>
+      <c r="I34">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="35" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0.3</v>
+      </c>
+      <c r="H35">
+        <v>-88</v>
+      </c>
+      <c r="I35">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="36" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0.3</v>
+      </c>
+      <c r="H36">
+        <v>-88</v>
+      </c>
+      <c r="I36">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="37" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0.3</v>
+      </c>
+      <c r="H37">
+        <v>-88</v>
+      </c>
+      <c r="I37">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="38" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0.3</v>
+      </c>
+      <c r="H38">
+        <v>-88</v>
+      </c>
+      <c r="I38">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="39" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0.3</v>
+      </c>
+      <c r="H39">
+        <v>-88</v>
+      </c>
+      <c r="I39">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="40" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0.3</v>
+      </c>
+      <c r="H40">
+        <v>-88</v>
+      </c>
+      <c r="I40">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="41" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0.3</v>
+      </c>
+      <c r="H41">
+        <v>-88</v>
+      </c>
+      <c r="I41">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="42" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0.3</v>
+      </c>
+      <c r="H42">
+        <v>-88</v>
+      </c>
+      <c r="I42">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="43" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0.3</v>
+      </c>
+      <c r="H43">
+        <v>-88</v>
+      </c>
+      <c r="I43">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="44" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0.3</v>
+      </c>
+      <c r="H44">
+        <v>-88</v>
+      </c>
+      <c r="I44">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="45" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0.3</v>
+      </c>
+      <c r="H45">
+        <v>-88</v>
+      </c>
+      <c r="I45">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="46" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0.3</v>
+      </c>
+      <c r="H46">
+        <v>-88</v>
+      </c>
+      <c r="I46">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="47" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0.3</v>
+      </c>
+      <c r="H47">
+        <v>-88</v>
+      </c>
+      <c r="I47">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="48" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0.3</v>
+      </c>
+      <c r="H48">
+        <v>-88</v>
+      </c>
+      <c r="I48">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0.3</v>
+      </c>
+      <c r="H49">
+        <v>-88</v>
+      </c>
+      <c r="I49">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0.3</v>
+      </c>
+      <c r="H50">
+        <v>-88</v>
+      </c>
+      <c r="I50">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0.3</v>
+      </c>
+      <c r="H51">
+        <v>-88</v>
+      </c>
+      <c r="I51">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0.3</v>
+      </c>
+      <c r="H52">
+        <v>-88</v>
+      </c>
+      <c r="I52">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0.3</v>
+      </c>
+      <c r="H53">
+        <v>-88</v>
+      </c>
+      <c r="I53">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0.3</v>
+      </c>
+      <c r="H54">
+        <v>-88</v>
+      </c>
+      <c r="I54">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0.3</v>
+      </c>
+      <c r="H55">
+        <v>-88</v>
+      </c>
+      <c r="I55">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0.3</v>
+      </c>
+      <c r="H56">
+        <v>-88</v>
+      </c>
+      <c r="I56">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0.3</v>
+      </c>
+      <c r="H57">
+        <v>-88</v>
+      </c>
+      <c r="I57">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0.3</v>
+      </c>
+      <c r="H58">
+        <v>-88</v>
+      </c>
+      <c r="I58">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0.3</v>
+      </c>
+      <c r="H59">
+        <v>-88</v>
+      </c>
+      <c r="I59">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0.3</v>
+      </c>
+      <c r="H60">
+        <v>-88</v>
+      </c>
+      <c r="I60">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0.3</v>
+      </c>
+      <c r="H61">
+        <v>-88</v>
+      </c>
+      <c r="I61">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0.3</v>
+      </c>
+      <c r="H62">
+        <v>-88</v>
+      </c>
+      <c r="I62">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0.3</v>
+      </c>
+      <c r="H63">
+        <v>-88</v>
+      </c>
+      <c r="I63">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0.3</v>
+      </c>
+      <c r="H64">
+        <v>-88</v>
+      </c>
+      <c r="I64">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0.3</v>
+      </c>
+      <c r="H65">
+        <v>-88</v>
+      </c>
+      <c r="I65">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0.3</v>
+      </c>
+      <c r="H66">
+        <v>-88</v>
+      </c>
+      <c r="I66">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0.3</v>
+      </c>
+      <c r="H67">
+        <v>-88</v>
+      </c>
+      <c r="I67">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0.3</v>
+      </c>
+      <c r="H68">
+        <v>-88</v>
+      </c>
+      <c r="I68">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0.3</v>
+      </c>
+      <c r="H69">
+        <v>-88</v>
+      </c>
+      <c r="I69">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0.3</v>
+      </c>
+      <c r="H70">
+        <v>-88</v>
+      </c>
+      <c r="I70">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0.3</v>
+      </c>
+      <c r="H71">
+        <v>-88</v>
+      </c>
+      <c r="I71">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0.3</v>
+      </c>
+      <c r="H72">
+        <v>-88</v>
+      </c>
+      <c r="I72">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0.3</v>
+      </c>
+      <c r="H73">
+        <v>-88</v>
+      </c>
+      <c r="I73">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0.3</v>
+      </c>
+      <c r="H74">
+        <v>-88</v>
+      </c>
+      <c r="I74">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0.3</v>
+      </c>
+      <c r="H75">
+        <v>-88</v>
+      </c>
+      <c r="I75">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0.3</v>
+      </c>
+      <c r="H76">
+        <v>-88</v>
+      </c>
+      <c r="I76">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0.3</v>
+      </c>
+      <c r="H77">
+        <v>-88</v>
+      </c>
+      <c r="I77">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0.3</v>
+      </c>
+      <c r="H78">
+        <v>-88</v>
+      </c>
+      <c r="I78">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0.3</v>
+      </c>
+      <c r="H79">
+        <v>-88</v>
+      </c>
+      <c r="I79">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0.3</v>
+      </c>
+      <c r="H80">
+        <v>-88</v>
+      </c>
+      <c r="I80">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0.3</v>
+      </c>
+      <c r="H81">
+        <v>-88</v>
+      </c>
+      <c r="I81">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0.3</v>
+      </c>
+      <c r="H82">
+        <v>-88</v>
+      </c>
+      <c r="I82">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0.3</v>
+      </c>
+      <c r="H83">
+        <v>-88</v>
+      </c>
+      <c r="I83">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>0.3</v>
+      </c>
+      <c r="H84">
+        <v>-88</v>
+      </c>
+      <c r="I84">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0.3</v>
+      </c>
+      <c r="H85">
+        <v>-88</v>
+      </c>
+      <c r="I85">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>0.3</v>
+      </c>
+      <c r="H86">
+        <v>-88</v>
+      </c>
+      <c r="I86">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0.3</v>
+      </c>
+      <c r="H87">
+        <v>-88</v>
+      </c>
+      <c r="I87">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0.3</v>
+      </c>
+      <c r="H88">
+        <v>-88</v>
+      </c>
+      <c r="I88">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0.3</v>
+      </c>
+      <c r="H89">
+        <v>-88</v>
+      </c>
+      <c r="I89">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>0.3</v>
+      </c>
+      <c r="H90">
+        <v>-88</v>
+      </c>
+      <c r="I90">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0.3</v>
+      </c>
+      <c r="H91">
+        <v>-88</v>
+      </c>
+      <c r="I91">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0.3</v>
+      </c>
+      <c r="H92">
+        <v>-88</v>
+      </c>
+      <c r="I92">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0.3</v>
+      </c>
+      <c r="H93">
+        <v>-88</v>
+      </c>
+      <c r="I93">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>0.3</v>
+      </c>
+      <c r="H94">
+        <v>-88</v>
+      </c>
+      <c r="I94">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>0.3</v>
+      </c>
+      <c r="H95">
+        <v>-88</v>
+      </c>
+      <c r="I95">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>0.3</v>
+      </c>
+      <c r="H96">
+        <v>-88</v>
+      </c>
+      <c r="I96">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>0.5</v>
+      </c>
+      <c r="H97">
+        <v>-94</v>
+      </c>
+      <c r="I97">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>0.5</v>
+      </c>
+      <c r="H98">
+        <v>-93</v>
+      </c>
+      <c r="I98">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>0.5</v>
+      </c>
+      <c r="H99">
+        <v>-94</v>
+      </c>
+      <c r="I99">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>0.5</v>
+      </c>
+      <c r="H100">
+        <v>-94</v>
+      </c>
+      <c r="I100">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>0.5</v>
+      </c>
+      <c r="H101">
+        <v>-94</v>
+      </c>
+      <c r="I101">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>0.5</v>
+      </c>
+      <c r="H102">
+        <v>-94</v>
+      </c>
+      <c r="I102">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>0.5</v>
+      </c>
+      <c r="H103">
+        <v>-94</v>
+      </c>
+      <c r="I103">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>0.5</v>
+      </c>
+      <c r="H104">
+        <v>-94</v>
+      </c>
+      <c r="I104">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>0.5</v>
+      </c>
+      <c r="H105">
+        <v>-94</v>
+      </c>
+      <c r="I105">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>0.5</v>
+      </c>
+      <c r="H106">
+        <v>-93</v>
+      </c>
+      <c r="I106">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>0.5</v>
+      </c>
+      <c r="H107">
+        <v>-93</v>
+      </c>
+      <c r="I107">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>0.5</v>
+      </c>
+      <c r="H108">
+        <v>-93</v>
+      </c>
+      <c r="I108">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>0.5</v>
+      </c>
+      <c r="H109">
+        <v>-93</v>
+      </c>
+      <c r="I109">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>0.5</v>
+      </c>
+      <c r="H110">
+        <v>-93</v>
+      </c>
+      <c r="I110">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>0.5</v>
+      </c>
+      <c r="H111">
+        <v>-93</v>
+      </c>
+      <c r="I111">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>0.5</v>
+      </c>
+      <c r="H112">
+        <v>-93</v>
+      </c>
+      <c r="I112">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>0.5</v>
+      </c>
+      <c r="H113">
+        <v>-94</v>
+      </c>
+      <c r="I113">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>0.5</v>
+      </c>
+      <c r="H114">
+        <v>-93</v>
+      </c>
+      <c r="I114">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>0.5</v>
+      </c>
+      <c r="H115">
+        <v>-93</v>
+      </c>
+      <c r="I115">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>0.5</v>
+      </c>
+      <c r="H116">
+        <v>-94</v>
+      </c>
+      <c r="I116">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>0.5</v>
+      </c>
+      <c r="H117">
+        <v>-94</v>
+      </c>
+      <c r="I117">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>0.5</v>
+      </c>
+      <c r="H118">
+        <v>-93</v>
+      </c>
+      <c r="I118">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>0.5</v>
+      </c>
+      <c r="H119">
+        <v>-93</v>
+      </c>
+      <c r="I119">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>0.5</v>
+      </c>
+      <c r="H120">
+        <v>-94</v>
+      </c>
+      <c r="I120">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>0.5</v>
+      </c>
+      <c r="H121">
+        <v>-94</v>
+      </c>
+      <c r="I121">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>0.75</v>
+      </c>
+      <c r="H122">
+        <v>-96</v>
+      </c>
+      <c r="I122">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>0.75</v>
+      </c>
+      <c r="H123">
+        <v>-96</v>
+      </c>
+      <c r="I123">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>0.75</v>
+      </c>
+      <c r="H124">
+        <v>-97</v>
+      </c>
+      <c r="I124">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>0.75</v>
+      </c>
+      <c r="H125">
+        <v>-99</v>
+      </c>
+      <c r="I125">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>0.75</v>
+      </c>
+      <c r="H126">
+        <v>-96</v>
+      </c>
+      <c r="I126">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>0.75</v>
+      </c>
+      <c r="H127">
+        <v>-98</v>
+      </c>
+      <c r="I127">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>0.75</v>
+      </c>
+      <c r="H128">
+        <v>-98</v>
+      </c>
+      <c r="I128">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>0.75</v>
+      </c>
+      <c r="H129">
+        <v>-97</v>
+      </c>
+      <c r="I129">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>0.75</v>
+      </c>
+      <c r="H130">
+        <v>-97</v>
+      </c>
+      <c r="I130">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>0.75</v>
+      </c>
+      <c r="H131">
+        <v>-96</v>
+      </c>
+      <c r="I131">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>0.75</v>
+      </c>
+      <c r="H132">
+        <v>-97</v>
+      </c>
+      <c r="I132">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>0.75</v>
+      </c>
+      <c r="H133">
+        <v>-96</v>
+      </c>
+      <c r="I133">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>0.75</v>
+      </c>
+      <c r="H134">
+        <v>-98</v>
+      </c>
+      <c r="I134">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>0.75</v>
+      </c>
+      <c r="H135">
+        <v>-99</v>
+      </c>
+      <c r="I135">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>0.75</v>
+      </c>
+      <c r="H136">
+        <v>-95</v>
+      </c>
+      <c r="I136">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>0.75</v>
+      </c>
+      <c r="H137">
+        <v>-97</v>
+      </c>
+      <c r="I137">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>0.75</v>
+      </c>
+      <c r="H138">
+        <v>-97</v>
+      </c>
+      <c r="I138">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>0.75</v>
+      </c>
+      <c r="H139">
+        <v>-98</v>
+      </c>
+      <c r="I139">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>0.75</v>
+      </c>
+      <c r="H140">
+        <v>-98</v>
+      </c>
+      <c r="I140">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>0.75</v>
+      </c>
+      <c r="H141">
+        <v>-98</v>
+      </c>
+      <c r="I141">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>0.75</v>
+      </c>
+      <c r="H142">
+        <v>-98</v>
+      </c>
+      <c r="I142">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>0.75</v>
+      </c>
+      <c r="H143">
+        <v>-95</v>
+      </c>
+      <c r="I143">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>0.75</v>
+      </c>
+      <c r="H144">
+        <v>-95</v>
+      </c>
+      <c r="I144">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>0.75</v>
+      </c>
+      <c r="H145">
+        <v>-95</v>
+      </c>
+      <c r="I145">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>0.75</v>
+      </c>
+      <c r="H146">
+        <v>-94</v>
+      </c>
+      <c r="I146">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>0.75</v>
+      </c>
+      <c r="H147">
+        <v>-94</v>
+      </c>
+      <c r="I147">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>-94</v>
+      </c>
+      <c r="I148">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>-94</v>
+      </c>
+      <c r="I149">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>-95</v>
+      </c>
+      <c r="I150">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>-94</v>
+      </c>
+      <c r="I151">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>-95</v>
+      </c>
+      <c r="I152">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>-94</v>
+      </c>
+      <c r="I153">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>-95</v>
+      </c>
+      <c r="I154">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>-96</v>
+      </c>
+      <c r="I155">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>-95</v>
+      </c>
+      <c r="I156">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>-96</v>
+      </c>
+      <c r="I157">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>-94</v>
+      </c>
+      <c r="I158">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>-95</v>
+      </c>
+      <c r="I159">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>-94</v>
+      </c>
+      <c r="I160">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="161" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>-95</v>
+      </c>
+      <c r="I161">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="162" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>-96</v>
+      </c>
+      <c r="I162">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="163" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>-95</v>
+      </c>
+      <c r="I163">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="164" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>-95</v>
+      </c>
+      <c r="I164">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="165" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>-95</v>
+      </c>
+      <c r="I165">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="166" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>-95</v>
+      </c>
+      <c r="I166">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="167" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>-95</v>
+      </c>
+      <c r="I167">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="168" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>-95</v>
+      </c>
+      <c r="I168">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="169" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>-96</v>
+      </c>
+      <c r="I169">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="170" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>-95</v>
+      </c>
+      <c r="I170">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="171" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>-94</v>
+      </c>
+      <c r="I171">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="172" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>-96</v>
+      </c>
+      <c r="I172">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="173" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>-95</v>
+      </c>
+      <c r="I173">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="174" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>-95</v>
+      </c>
+      <c r="I174">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="175" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>-94</v>
+      </c>
+      <c r="I175">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="176" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>1.5</v>
+      </c>
+      <c r="H176">
+        <v>-94</v>
+      </c>
+      <c r="I176">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="177" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>1.5</v>
+      </c>
+      <c r="H177">
+        <v>-95</v>
+      </c>
+      <c r="I177">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="178" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>1.5</v>
+      </c>
+      <c r="H178">
+        <v>-95</v>
+      </c>
+      <c r="I178">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="179" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>1.5</v>
+      </c>
+      <c r="H179">
+        <v>-95</v>
+      </c>
+      <c r="I179">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="180" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>1.5</v>
+      </c>
+      <c r="H180">
+        <v>-95</v>
+      </c>
+      <c r="I180">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="181" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>1.5</v>
+      </c>
+      <c r="H181">
+        <v>-94</v>
+      </c>
+      <c r="I181">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="182" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>1.5</v>
+      </c>
+      <c r="H182">
+        <v>-95</v>
+      </c>
+      <c r="I182">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="183" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>1.5</v>
+      </c>
+      <c r="H183">
+        <v>-96</v>
+      </c>
+      <c r="I183">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="184" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>1.5</v>
+      </c>
+      <c r="H184">
+        <v>-96</v>
+      </c>
+      <c r="I184">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="185" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>1.5</v>
+      </c>
+      <c r="H185">
+        <v>-96</v>
+      </c>
+      <c r="I185">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="186" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>1.5</v>
+      </c>
+      <c r="H186">
+        <v>-94</v>
+      </c>
+      <c r="I186">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="187" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>1.5</v>
+      </c>
+      <c r="H187">
+        <v>-95</v>
+      </c>
+      <c r="I187">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="188" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>1.5</v>
+      </c>
+      <c r="H188">
+        <v>-96</v>
+      </c>
+      <c r="I188">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="189" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>1.5</v>
+      </c>
+      <c r="H189">
+        <v>-95</v>
+      </c>
+      <c r="I189">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="190" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>1.5</v>
+      </c>
+      <c r="H190">
+        <v>-95</v>
+      </c>
+      <c r="I190">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="191" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>1.5</v>
+      </c>
+      <c r="H191">
+        <v>-94</v>
+      </c>
+      <c r="I191">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="192" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>-99</v>
+      </c>
+      <c r="I192">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="193" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>-100</v>
+      </c>
+      <c r="I193">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="194" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>-98</v>
+      </c>
+      <c r="I194">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="195" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>-99</v>
+      </c>
+      <c r="I195">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="196" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>-99</v>
+      </c>
+      <c r="I196">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="197" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>-97</v>
+      </c>
+      <c r="I197">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="198" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>2</v>
+      </c>
+      <c r="H198">
+        <v>-97</v>
+      </c>
+      <c r="I198">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="199" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>-98</v>
+      </c>
+      <c r="I199">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="200" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>-97</v>
+      </c>
+      <c r="I200">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="201" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>-98</v>
+      </c>
+      <c r="I201">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="202" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>-99</v>
+      </c>
+      <c r="I202">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="203" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>-99</v>
+      </c>
+      <c r="I203">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="204" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>-99</v>
+      </c>
+      <c r="I204">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="205" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>2</v>
+      </c>
+      <c r="H205">
+        <v>-99</v>
+      </c>
+      <c r="I205">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="206" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <v>-98</v>
+      </c>
+      <c r="I206">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="207" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>3.5</v>
+      </c>
+      <c r="H207">
+        <v>-102</v>
+      </c>
+      <c r="I207">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="208" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>4.5</v>
+      </c>
+      <c r="H208">
+        <v>-102</v>
+      </c>
+      <c r="I208">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>4.5</v>
+      </c>
+      <c r="H209">
+        <v>-102</v>
+      </c>
+      <c r="I209">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="210" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>4.5</v>
+      </c>
+      <c r="H210">
+        <v>-103</v>
+      </c>
+      <c r="I210">
+        <v>-103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="AE13:AH13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Praca Inżynierska/dane/excel/moc-30.xlsx
+++ b/Praca Inżynierska/dane/excel/moc-30.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="moc-30" sheetId="1" r:id="rId1"/>
@@ -1328,13 +1328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1433,7 +1433,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4412,11 +4411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="407132992"/>
-        <c:axId val="407138480"/>
+        <c:axId val="352207496"/>
+        <c:axId val="352206712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="407132992"/>
+        <c:axId val="352207496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,12 +4472,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407138480"/>
+        <c:crossAx val="352206712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="407138480"/>
+        <c:axId val="352206712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-80"/>
@@ -4536,7 +4535,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407132992"/>
+        <c:crossAx val="352207496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4550,7 +4549,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4662,7 +4660,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4794,11 +4791,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="407131424"/>
-        <c:axId val="407131032"/>
+        <c:axId val="352203184"/>
+        <c:axId val="352209064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="407131424"/>
+        <c:axId val="352203184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4841,7 +4838,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407131032"/>
+        <c:crossAx val="352209064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4849,7 +4846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="407131032"/>
+        <c:axId val="352209064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,7 +4897,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407131424"/>
+        <c:crossAx val="352203184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5217,31 +5214,31 @@
             <c:numRef>
               <c:f>Arkusz1!$AC$2:$AC$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.40327550856876537</c:v>
+                  <c:v>6.2422655134389757E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83234421229490518</c:v>
+                  <c:v>0.52676625632337659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2688251996282411</c:v>
+                  <c:v>2.2427783426251566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97491112388832046</c:v>
+                  <c:v>0.88882784057115993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0009415158044996</c:v>
+                  <c:v>1.1315638133562562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6732483426581195</c:v>
+                  <c:v>4.1014729953070193</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5506991350936401</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6188034950910275</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5324,31 +5321,31 @@
             <c:numRef>
               <c:f>Arkusz1!$AD$2:$AD$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1592512629216731</c:v>
+                  <c:v>0.20831094154979807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62704849768239324</c:v>
+                  <c:v>0.64335164026476122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3919060728758208</c:v>
+                  <c:v>1.3838834165083189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84560380968445492</c:v>
+                  <c:v>0.84834483134770078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88881470421762299</c:v>
+                  <c:v>0.9638606867464411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.348957063214216</c:v>
+                  <c:v>1.9041630214051066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2141542692419804</c:v>
+                  <c:v>4.0959554040562391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4806008812693792</c:v>
+                  <c:v>4.3659237227277359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,11 +5360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268893560"/>
-        <c:axId val="268891600"/>
+        <c:axId val="392409200"/>
+        <c:axId val="392412336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268893560"/>
+        <c:axId val="392409200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,12 +5421,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268891600"/>
+        <c:crossAx val="392412336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268891600"/>
+        <c:axId val="392412336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5486,7 +5483,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268893560"/>
+        <c:crossAx val="392409200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5832,31 +5829,31 @@
             <c:numRef>
               <c:f>Arkusz1!$AG$2:$AG$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.40327550856876537</c:v>
+                  <c:v>6.2422655134389757E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88902127971938749</c:v>
+                  <c:v>0.46686062437965159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5058638083372888</c:v>
+                  <c:v>1.0440595018708398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88902127971938749</c:v>
+                  <c:v>1.0440595018708398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0142161953502802</c:v>
+                  <c:v>0.69816206638067102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9598483394116848</c:v>
+                  <c:v>2.3348729503483421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5506991350936401</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5506991350936401</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,31 +5933,31 @@
             <c:numRef>
               <c:f>Arkusz1!$AH$2:$AH$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1592512629216731</c:v>
+                  <c:v>0.20831094154979807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71025104497715608</c:v>
+                  <c:v>0.6035697815637775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.924411213436779</c:v>
+                  <c:v>0.92370575767662011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71025104497715608</c:v>
+                  <c:v>0.92370575767662011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91124127016132184</c:v>
+                  <c:v>0.74667320990516406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1676769002406995</c:v>
+                  <c:v>1.4136432154610448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2141542692419804</c:v>
+                  <c:v>4.0959554040562391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2141542692419804</c:v>
+                  <c:v>4.0959554040562391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,11 +5972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="520183344"/>
-        <c:axId val="520183736"/>
+        <c:axId val="392408808"/>
+        <c:axId val="392408416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="520183344"/>
+        <c:axId val="392408808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,12 +6033,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520183736"/>
+        <c:crossAx val="392408416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520183736"/>
+        <c:axId val="392408416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6098,7 +6095,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520183344"/>
+        <c:crossAx val="392408808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16820,8 +16817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16973,37 +16970,37 @@
         <f ca="1">AVERAGE(P2:Y2)</f>
         <v>-88</v>
       </c>
-      <c r="AA2" s="8">
-        <f ca="1">POWER(10,-((Z2-$B$5)/10*$B$3))</f>
-        <v>0.40327550856876537</v>
-      </c>
-      <c r="AB2" s="9">
-        <f ca="1">POWER(10,-((Z2-$C$5)/10*$C$3))</f>
-        <v>0.1592512629216731</v>
-      </c>
-      <c r="AC2" s="9">
+      <c r="AA2" s="10">
+        <f ca="1">POWER(10,-((Z2-$B$5)/(10*$B$3)))</f>
+        <v>6.2422655134389757E-2</v>
+      </c>
+      <c r="AB2" s="1">
+        <f ca="1">POWER(10,-((Z2-$C$5)/(10*$C$3)))</f>
+        <v>0.20831094154979807</v>
+      </c>
+      <c r="AC2" s="1">
         <f ca="1">IF(AA2&gt;15,15,AA2)</f>
-        <v>0.40327550856876537</v>
-      </c>
-      <c r="AD2" s="9">
+        <v>6.2422655134389757E-2</v>
+      </c>
+      <c r="AD2" s="1">
         <f ca="1">IF(AB2&gt;15,15,AB2)</f>
-        <v>0.1592512629216731</v>
-      </c>
-      <c r="AE2" s="10">
-        <f ca="1">POWER(10,-((P2-$B$5)/10*$B$3))</f>
-        <v>0.40327550856876537</v>
-      </c>
-      <c r="AF2" s="9">
-        <f ca="1">POWER(10,-((P2-$C$5)/10*$C$3))</f>
-        <v>0.1592512629216731</v>
-      </c>
-      <c r="AG2" s="9">
+        <v>0.20831094154979807</v>
+      </c>
+      <c r="AE2" s="11">
+        <f ca="1">POWER(10,-((P2-$B$5)/(10*$B$3)))</f>
+        <v>6.2422655134389757E-2</v>
+      </c>
+      <c r="AF2" s="1">
+        <f ca="1">POWER(10,-((P2-$C$5)/(10*$C$3)))</f>
+        <v>0.20831094154979807</v>
+      </c>
+      <c r="AG2" s="1">
         <f ca="1">IF(AE2&gt;15,15,AE2)</f>
-        <v>0.40327550856876537</v>
-      </c>
-      <c r="AH2" s="11">
+        <v>6.2422655134389757E-2</v>
+      </c>
+      <c r="AH2" s="12">
         <f ca="1">IF(AF2&gt;15,15,AF2)</f>
-        <v>0.1592512629216731</v>
+        <v>0.20831094154979807</v>
       </c>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
@@ -17030,84 +17027,84 @@
         <v>97</v>
       </c>
       <c r="O3">
-        <f>N3+COUNTIF(G:G,M3)-1</f>
+        <f t="shared" ref="O3:O12" si="1">N3+COUNTIF(G:G,M3)-1</f>
         <v>121</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:Y28" ca="1" si="1">INDIRECT("I"&amp;RANDBETWEEN($N3,$O3))</f>
-        <v>-94</v>
+        <f t="shared" ref="P3:Y12" ca="1" si="2">INDIRECT("I"&amp;RANDBETWEEN($N3,$O3))</f>
+        <v>-93</v>
       </c>
       <c r="Q3">
         <f ca="1">INDIRECT("I"&amp;RANDBETWEEN($N3,$O3))</f>
+        <v>-93</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="2"/>
         <v>-94</v>
       </c>
-      <c r="R3">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S3">
+        <f t="shared" ca="1" si="2"/>
         <v>-93</v>
       </c>
-      <c r="S3">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T3">
+        <f t="shared" ca="1" si="2"/>
+        <v>-93</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="2"/>
         <v>-94</v>
       </c>
-      <c r="T3">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V3">
+        <f t="shared" ca="1" si="2"/>
         <v>-93</v>
       </c>
-      <c r="U3">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W3">
+        <f t="shared" ca="1" si="2"/>
         <v>-94</v>
       </c>
-      <c r="V3">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X3">
+        <f t="shared" ca="1" si="2"/>
         <v>-93</v>
       </c>
-      <c r="W3">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y3">
+        <f t="shared" ca="1" si="2"/>
         <v>-93</v>
       </c>
-      <c r="Y3">
-        <f t="shared" ca="1" si="1"/>
-        <v>-93</v>
-      </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z33" ca="1" si="2">AVERAGE(P3:Y3)</f>
-        <v>-93.5</v>
-      </c>
-      <c r="AA3" s="8">
-        <f ca="1">POWER(10,-((Z3-$B$5)/10*$B$3))</f>
-        <v>0.83234421229490518</v>
-      </c>
-      <c r="AB3" s="9">
-        <f ca="1">POWER(10,-((Z3-$C$5)/10*$C$3))</f>
-        <v>0.62704849768239324</v>
-      </c>
-      <c r="AC3" s="9">
-        <f t="shared" ref="AC3:AD33" ca="1" si="3">IF(AA3&gt;15,15,AA3)</f>
-        <v>0.83234421229490518</v>
-      </c>
-      <c r="AD3" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.62704849768239324</v>
-      </c>
-      <c r="AE3" s="10">
-        <f t="shared" ref="AE3:AE33" ca="1" si="4">POWER(10,-((P3-$B$5)/10*$B$3))</f>
-        <v>0.88902127971938749</v>
-      </c>
-      <c r="AF3" s="9">
-        <f t="shared" ref="AF3:AF33" ca="1" si="5">POWER(10,-((P3-$C$5)/10*$C$3))</f>
-        <v>0.71025104497715608</v>
-      </c>
-      <c r="AG3" s="9">
-        <f t="shared" ref="AG3:AH33" ca="1" si="6">IF(AE3&gt;15,15,AE3)</f>
-        <v>0.88902127971938749</v>
-      </c>
-      <c r="AH3" s="11">
+        <f t="shared" ref="Z3:Z12" ca="1" si="3">AVERAGE(P3:Y3)</f>
+        <v>-93.3</v>
+      </c>
+      <c r="AA3" s="10">
+        <f t="shared" ref="AA3:AA12" ca="1" si="4">POWER(10,-((Z3-$B$5)/(10*$B$3)))</f>
+        <v>0.52676625632337659</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB12" ca="1" si="5">POWER(10,-((Z3-$C$5)/(10*$C$3)))</f>
+        <v>0.64335164026476122</v>
+      </c>
+      <c r="AC3" s="1">
+        <f t="shared" ref="AC3:AD12" ca="1" si="6">IF(AA3&gt;15,15,AA3)</f>
+        <v>0.52676625632337659</v>
+      </c>
+      <c r="AD3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71025104497715608</v>
+        <v>0.64335164026476122</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" ref="AE3:AE12" ca="1" si="7">POWER(10,-((P3-$B$5)/(10*$B$3)))</f>
+        <v>0.46686062437965159</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" ref="AF3:AF12" ca="1" si="8">POWER(10,-((P3-$C$5)/(10*$C$3)))</f>
+        <v>0.6035697815637775</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" ref="AG3:AH12" ca="1" si="9">IF(AE3&gt;15,15,AE3)</f>
+        <v>0.46686062437965159</v>
+      </c>
+      <c r="AH3" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.6035697815637775</v>
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
@@ -17134,84 +17131,84 @@
         <v>122</v>
       </c>
       <c r="O4">
-        <f>N4+COUNTIF(G:G,M4)-1</f>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="P4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>-95</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="2"/>
+        <v>-96</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="2"/>
         <v>-98</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S4">
+        <f t="shared" ca="1" si="2"/>
+        <v>-95</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="2"/>
         <v>-98</v>
       </c>
-      <c r="R4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U4">
+        <f t="shared" ca="1" si="2"/>
+        <v>-94</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="2"/>
+        <v>-99</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="2"/>
         <v>-97</v>
       </c>
-      <c r="S4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="X4">
+        <f t="shared" ca="1" si="2"/>
         <v>-98</v>
       </c>
-      <c r="T4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-96</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-98</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-97</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-96</v>
-      </c>
       <c r="Y4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-95</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-99</v>
       </c>
       <c r="Z4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-96.7</v>
-      </c>
-      <c r="AA4" s="8">
-        <f ca="1">POWER(10,-((Z4-$B$5)/10*$B$3))</f>
-        <v>1.2688251996282411</v>
-      </c>
-      <c r="AB4" s="9">
-        <f ca="1">POWER(10,-((Z4-$C$5)/10*$C$3))</f>
-        <v>1.3919060728758208</v>
-      </c>
-      <c r="AC4" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2688251996282411</v>
-      </c>
-      <c r="AD4" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3919060728758208</v>
-      </c>
-      <c r="AE4" s="10">
+        <v>-96.9</v>
+      </c>
+      <c r="AA4" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5058638083372888</v>
-      </c>
-      <c r="AF4" s="9">
+        <v>2.2427783426251566</v>
+      </c>
+      <c r="AB4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.924411213436779</v>
-      </c>
-      <c r="AG4" s="9">
+        <v>1.3838834165083189</v>
+      </c>
+      <c r="AC4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5058638083372888</v>
-      </c>
-      <c r="AH4" s="11">
+        <v>2.2427783426251566</v>
+      </c>
+      <c r="AD4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.924411213436779</v>
+        <v>1.3838834165083189</v>
+      </c>
+      <c r="AE4" s="11">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0440595018708398</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.92370575767662011</v>
+      </c>
+      <c r="AG4" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0440595018708398</v>
+      </c>
+      <c r="AH4" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.92370575767662011</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
@@ -17234,88 +17231,88 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N33" si="7">O4+1</f>
+        <f t="shared" ref="N5:N12" si="10">O4+1</f>
         <v>148</v>
       </c>
       <c r="O5">
-        <f>N5+COUNTIF(G:G,M5)-1</f>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="P5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>-95</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-95</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-95</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-95</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="2"/>
         <v>-94</v>
       </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U5">
+        <f t="shared" ca="1" si="2"/>
         <v>-94</v>
       </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="1"/>
+      <c r="V5">
+        <f t="shared" ca="1" si="2"/>
         <v>-95</v>
       </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-94</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-94</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ca="1" si="2"/>
         <v>-95</v>
       </c>
-      <c r="T5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-96</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
-      </c>
-      <c r="X5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-96</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-95</v>
-      </c>
       <c r="Z5">
-        <f t="shared" ca="1" si="2"/>
-        <v>-94.7</v>
-      </c>
-      <c r="AA5" s="8">
-        <f ca="1">POWER(10,-((Z5-$B$5)/10*$B$3))</f>
-        <v>0.97491112388832046</v>
-      </c>
-      <c r="AB5" s="9">
-        <f ca="1">POWER(10,-((Z5-$C$5)/10*$C$3))</f>
-        <v>0.84560380968445492</v>
-      </c>
-      <c r="AC5" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97491112388832046</v>
-      </c>
-      <c r="AD5" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.84560380968445492</v>
-      </c>
-      <c r="AE5" s="10">
+        <v>-94.6</v>
+      </c>
+      <c r="AA5" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88902127971938749</v>
-      </c>
-      <c r="AF5" s="9">
+        <v>0.88882784057115993</v>
+      </c>
+      <c r="AB5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71025104497715608</v>
-      </c>
-      <c r="AG5" s="9">
+        <v>0.84834483134770078</v>
+      </c>
+      <c r="AC5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88902127971938749</v>
-      </c>
-      <c r="AH5" s="11">
+        <v>0.88882784057115993</v>
+      </c>
+      <c r="AD5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71025104497715608</v>
+        <v>0.84834483134770078</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0440595018708398</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.92370575767662011</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0440595018708398</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.92370575767662011</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.25">
@@ -17332,88 +17329,88 @@
         <v>1.5</v>
       </c>
       <c r="N6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
       <c r="O6">
-        <f>N6+COUNTIF(G:G,M6)-1</f>
+        <f t="shared" si="1"/>
         <v>191</v>
       </c>
       <c r="P6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>-94</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="2"/>
+        <v>-94</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="2"/>
         <v>-95</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="1"/>
+      <c r="S6">
+        <f t="shared" ca="1" si="2"/>
         <v>-95</v>
       </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T6">
+        <f t="shared" ca="1" si="2"/>
         <v>-95</v>
       </c>
-      <c r="T6">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U6">
+        <f t="shared" ca="1" si="2"/>
         <v>-96</v>
       </c>
-      <c r="U6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
-      </c>
       <c r="V6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-94</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-95</v>
       </c>
       <c r="W6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-95</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-96</v>
       </c>
       <c r="X6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-95</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-96</v>
       </c>
       <c r="Y6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-96</v>
       </c>
       <c r="Z6">
-        <f t="shared" ca="1" si="2"/>
-        <v>-94.9</v>
-      </c>
-      <c r="AA6" s="8">
-        <f ca="1">POWER(10,-((Z6-$B$5)/10*$B$3))</f>
-        <v>1.0009415158044996</v>
-      </c>
-      <c r="AB6" s="9">
-        <f ca="1">POWER(10,-((Z6-$C$5)/10*$C$3))</f>
-        <v>0.88881470421762299</v>
-      </c>
-      <c r="AC6" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0009415158044996</v>
-      </c>
-      <c r="AD6" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.88881470421762299</v>
-      </c>
-      <c r="AE6" s="10">
+        <v>-95.2</v>
+      </c>
+      <c r="AA6" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0142161953502802</v>
-      </c>
-      <c r="AF6" s="9">
+        <v>1.1315638133562562</v>
+      </c>
+      <c r="AB6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91124127016132184</v>
-      </c>
-      <c r="AG6" s="9">
+        <v>0.9638606867464411</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0142161953502802</v>
-      </c>
-      <c r="AH6" s="11">
+        <v>1.1315638133562562</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91124127016132184</v>
+        <v>0.9638606867464411</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.69816206638067102</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74667320990516406</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.69816206638067102</v>
+      </c>
+      <c r="AH6" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.74667320990516406</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.25">
@@ -17430,88 +17427,88 @@
         <v>2</v>
       </c>
       <c r="N7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="O7">
-        <f>N7+COUNTIF(G:G,M7)-1</f>
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
       <c r="P7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>-97</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-97</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-99</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-99</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="2"/>
         <v>-100</v>
       </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-98</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-98</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="2"/>
         <v>-99</v>
       </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y7">
+        <f t="shared" ca="1" si="2"/>
         <v>-97</v>
       </c>
-      <c r="S7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-98</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-99</v>
-      </c>
-      <c r="U7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-97</v>
-      </c>
-      <c r="V7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-99</v>
-      </c>
-      <c r="W7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-100</v>
-      </c>
-      <c r="X7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-99</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-100</v>
-      </c>
       <c r="Z7">
-        <f t="shared" ca="1" si="2"/>
-        <v>-98.8</v>
-      </c>
-      <c r="AA7" s="8">
-        <f ca="1">POWER(10,-((Z7-$B$5)/10*$B$3))</f>
-        <v>1.6732483426581195</v>
-      </c>
-      <c r="AB7" s="9">
-        <f ca="1">POWER(10,-((Z7-$C$5)/10*$C$3))</f>
-        <v>2.348957063214216</v>
-      </c>
-      <c r="AC7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6732483426581195</v>
-      </c>
-      <c r="AD7" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.348957063214216</v>
-      </c>
-      <c r="AE7" s="10">
+        <v>-98.4</v>
+      </c>
+      <c r="AA7" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9598483394116848</v>
-      </c>
-      <c r="AF7" s="9">
+        <v>4.1014729953070193</v>
+      </c>
+      <c r="AB7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1676769002406995</v>
-      </c>
-      <c r="AG7" s="9">
+        <v>1.9041630214051066</v>
+      </c>
+      <c r="AC7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9598483394116848</v>
-      </c>
-      <c r="AH7" s="11">
+        <v>4.1014729953070193</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1676769002406995</v>
+        <v>1.9041630214051066</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.3348729503483421</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.4136432154610448</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.3348729503483421</v>
+      </c>
+      <c r="AH7" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.4136432154610448</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
@@ -17528,21 +17525,33 @@
         <v>2.5</v>
       </c>
       <c r="N8">
+        <f t="shared" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="AA8" s="10">
+        <f t="shared" si="4"/>
+        <v>2.6041744628442776E-17</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5390081914534445E-9</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="11">
         <f t="shared" si="7"/>
-        <v>207</v>
-      </c>
-      <c r="O8">
-        <f>N8+COUNTIF(G:G,M8)-1</f>
-        <v>206</v>
-      </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="11"/>
+        <v>2.6041744628442776E-17</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5390081914534445E-9</v>
+      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G9">
@@ -17558,21 +17567,33 @@
         <v>3</v>
       </c>
       <c r="N9">
+        <f t="shared" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="AA9" s="10">
+        <f t="shared" si="4"/>
+        <v>2.6041744628442776E-17</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5390081914534445E-9</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="11">
         <f t="shared" si="7"/>
-        <v>207</v>
-      </c>
-      <c r="O9">
-        <f>N9+COUNTIF(G:G,M9)-1</f>
-        <v>206</v>
-      </c>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="11"/>
+        <v>2.6041744628442776E-17</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5390081914534445E-9</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="12"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G10">
@@ -17588,88 +17609,88 @@
         <v>3.5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="O10">
-        <f>N10+COUNTIF(G:G,M10)-1</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="P10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="V10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="W10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="X10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="Z10">
         <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
-      <c r="AA10" s="8">
-        <f ca="1">POWER(10,-((Z10-$B$5)/10*$B$3))</f>
-        <v>2.5506991350936401</v>
-      </c>
-      <c r="AB10" s="9">
-        <f ca="1">POWER(10,-((Z10-$C$5)/10*$C$3))</f>
-        <v>5.2141542692419804</v>
-      </c>
-      <c r="AC10" s="9">
+      <c r="Q10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="Z10">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5506991350936401</v>
-      </c>
-      <c r="AD10" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2141542692419804</v>
-      </c>
-      <c r="AE10" s="10">
+        <v>-102</v>
+      </c>
+      <c r="AA10" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5506991350936401</v>
-      </c>
-      <c r="AF10" s="9">
+        <v>17.462574142352569</v>
+      </c>
+      <c r="AB10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2141542692419804</v>
-      </c>
-      <c r="AG10" s="9">
+        <v>4.0959554040562391</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5506991350936401</v>
-      </c>
-      <c r="AH10" s="11">
+        <v>15</v>
+      </c>
+      <c r="AD10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2141542692419804</v>
+        <v>4.0959554040562391</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" ca="1" si="7"/>
+        <v>17.462574142352569</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.0959554040562391</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AH10" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.0959554040562391</v>
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.25">
@@ -17686,21 +17707,33 @@
         <v>4</v>
       </c>
       <c r="N11">
+        <f t="shared" si="10"/>
+        <v>208</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" si="4"/>
+        <v>2.6041744628442776E-17</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5390081914534445E-9</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="11">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-      <c r="O11">
-        <f>N11+COUNTIF(G:G,M11)-1</f>
-        <v>207</v>
-      </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="11"/>
+        <v>2.6041744628442776E-17</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5390081914534445E-9</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="12"/>
     </row>
     <row r="12" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12">
@@ -17716,88 +17749,88 @@
         <v>4.5</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>208</v>
       </c>
       <c r="O12">
-        <f>N12+COUNTIF(G:G,M12)-1</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="P12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
       <c r="Q12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
       <c r="R12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-103</v>
       </c>
       <c r="S12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
       <c r="T12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
       <c r="U12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>-103</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
-      <c r="V12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W12">
+        <f t="shared" ca="1" si="2"/>
+        <v>-103</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
-      <c r="W12">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Y12">
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
-      <c r="X12">
-        <f t="shared" ca="1" si="1"/>
-        <v>-103</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" ca="1" si="1"/>
-        <v>-102</v>
-      </c>
       <c r="Z12">
-        <f t="shared" ca="1" si="2"/>
-        <v>-102.2</v>
-      </c>
-      <c r="AA12" s="8">
-        <f ca="1">POWER(10,-((Z12-$B$5)/10*$B$3))</f>
-        <v>2.6188034950910275</v>
-      </c>
-      <c r="AB12" s="9">
-        <f ca="1">POWER(10,-((Z12-$C$5)/10*$C$3))</f>
-        <v>5.4806008812693792</v>
-      </c>
-      <c r="AC12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6188034950910275</v>
-      </c>
-      <c r="AD12" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4806008812693792</v>
-      </c>
-      <c r="AE12" s="10">
+        <v>-102.3</v>
+      </c>
+      <c r="AA12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5506991350936401</v>
-      </c>
-      <c r="AF12" s="9">
+        <v>19.703299713826517</v>
+      </c>
+      <c r="AB12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2141542692419804</v>
-      </c>
-      <c r="AG12" s="9">
+        <v>4.3659237227277359</v>
+      </c>
+      <c r="AC12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5506991350936401</v>
-      </c>
-      <c r="AH12" s="11">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2141542692419804</v>
+        <v>4.3659237227277359</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" ca="1" si="7"/>
+        <v>17.462574142352569</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.0959554040562391</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AH12" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.0959554040562391</v>
       </c>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
@@ -17810,18 +17843,18 @@
       <c r="I13">
         <v>-88</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AA13" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12" t="s">
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G14">
@@ -17833,14 +17866,14 @@
       <c r="I14">
         <v>-88</v>
       </c>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G15">
@@ -17852,14 +17885,14 @@
       <c r="I15">
         <v>-88</v>
       </c>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G16">
@@ -17871,14 +17904,14 @@
       <c r="I16">
         <v>-88</v>
       </c>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
     </row>
     <row r="17" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G17">
@@ -17890,14 +17923,14 @@
       <c r="I17">
         <v>-88</v>
       </c>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G18">
@@ -17909,14 +17942,14 @@
       <c r="I18">
         <v>-88</v>
       </c>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
     </row>
     <row r="19" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G19">
@@ -17928,14 +17961,14 @@
       <c r="I19">
         <v>-88</v>
       </c>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
     </row>
     <row r="20" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G20">
@@ -17947,14 +17980,14 @@
       <c r="I20">
         <v>-88</v>
       </c>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
     </row>
     <row r="21" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G21">
@@ -17966,14 +17999,14 @@
       <c r="I21">
         <v>-88</v>
       </c>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
     </row>
     <row r="22" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G22">
@@ -17985,14 +18018,14 @@
       <c r="I22">
         <v>-88</v>
       </c>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G23">
@@ -18004,14 +18037,14 @@
       <c r="I23">
         <v>-88</v>
       </c>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
     </row>
     <row r="24" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G24">
@@ -18023,14 +18056,14 @@
       <c r="I24">
         <v>-88</v>
       </c>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G25">
@@ -18042,14 +18075,14 @@
       <c r="I25">
         <v>-88</v>
       </c>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
     </row>
     <row r="26" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G26">
@@ -18061,14 +18094,14 @@
       <c r="I26">
         <v>-88</v>
       </c>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
     </row>
     <row r="27" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G27">
@@ -18080,14 +18113,14 @@
       <c r="I27">
         <v>-88</v>
       </c>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
     </row>
     <row r="28" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G28">
@@ -18099,14 +18132,14 @@
       <c r="I28">
         <v>-88</v>
       </c>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G29">
@@ -18118,14 +18151,14 @@
       <c r="I29">
         <v>-88</v>
       </c>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
     </row>
     <row r="30" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G30">
@@ -18137,14 +18170,14 @@
       <c r="I30">
         <v>-88</v>
       </c>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
     </row>
     <row r="31" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G31">
@@ -18156,14 +18189,14 @@
       <c r="I31">
         <v>-88</v>
       </c>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
     </row>
     <row r="32" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G32">
@@ -18175,14 +18208,14 @@
       <c r="I32">
         <v>-88</v>
       </c>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
     </row>
     <row r="33" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G33">
@@ -18194,14 +18227,14 @@
       <c r="I33">
         <v>-88</v>
       </c>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
     </row>
     <row r="34" spans="7:34" x14ac:dyDescent="0.25">
       <c r="G34">

--- a/Praca Inżynierska/dane/excel/moc-30.xlsx
+++ b/Praca Inżynierska/dane/excel/moc-30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comarch\Documents\NoweRepo\nowe\Projekt_inz\Praca Inżynierska\dane\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projekt_inz\Projekt_inz\Praca Inżynierska\dane\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="moc-30" sheetId="1" r:id="rId1"/>
@@ -1329,12 +1329,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1433,6 +1433,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4411,11 +4412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352207496"/>
-        <c:axId val="352206712"/>
+        <c:axId val="455049864"/>
+        <c:axId val="455050256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352207496"/>
+        <c:axId val="455049864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4472,12 +4473,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352206712"/>
+        <c:crossAx val="455050256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352206712"/>
+        <c:axId val="455050256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-80"/>
@@ -4535,7 +4536,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352207496"/>
+        <c:crossAx val="455049864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4549,6 +4550,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4660,6 +4662,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4791,11 +4794,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352203184"/>
-        <c:axId val="352209064"/>
+        <c:axId val="454434512"/>
+        <c:axId val="454447448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352203184"/>
+        <c:axId val="454434512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4841,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352209064"/>
+        <c:crossAx val="454447448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4846,7 +4849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352209064"/>
+        <c:axId val="454447448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,7 +4900,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352203184"/>
+        <c:crossAx val="454434512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4986,7 +4989,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5223,16 +5225,16 @@
                   <c:v>0.52676625632337659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2427783426251566</c:v>
+                  <c:v>2.0693433384571414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88882784057115993</c:v>
+                  <c:v>0.96332193605027983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1315638133562562</c:v>
+                  <c:v>0.96332193605027983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1014729953070193</c:v>
+                  <c:v>3.6350396793256574</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>15</c:v>
@@ -5330,22 +5332,22 @@
                   <c:v>0.64335164026476122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3838834165083189</c:v>
+                  <c:v>1.3262301257424391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84834483134770078</c:v>
+                  <c:v>0.88522370348464596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9638606867464411</c:v>
+                  <c:v>0.88522370348464596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9041630214051066</c:v>
+                  <c:v>1.7864184793534137</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.0959554040562391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3659237227277359</c:v>
+                  <c:v>4.8559888904372723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,11 +5362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="392409200"/>
-        <c:axId val="392412336"/>
+        <c:axId val="454448624"/>
+        <c:axId val="454448232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="392409200"/>
+        <c:axId val="454448624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,12 +5423,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392412336"/>
+        <c:crossAx val="454448232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392412336"/>
+        <c:axId val="454448232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,7 +5485,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392409200"/>
+        <c:crossAx val="454448624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5497,7 +5499,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5604,7 +5605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5835,13 +5835,13 @@
                   <c:v>6.2422655134389757E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46686062437965159</c:v>
+                  <c:v>0.69816206638067102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0440595018708398</c:v>
+                  <c:v>5.2215718400145272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0440595018708398</c:v>
+                  <c:v>0.69816206638067102</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.69816206638067102</c:v>
@@ -5939,13 +5939,13 @@
                   <c:v>0.20831094154979807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6035697815637775</c:v>
+                  <c:v>0.74667320990516406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92370575767662011</c:v>
+                  <c:v>2.163445582114317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92370575767662011</c:v>
+                  <c:v>0.74667320990516406</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.74667320990516406</c:v>
@@ -5957,7 +5957,7 @@
                   <c:v>4.0959554040562391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0959554040562391</c:v>
+                  <c:v>5.0670862965526196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,11 +5972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="392408808"/>
-        <c:axId val="392408416"/>
+        <c:axId val="454447840"/>
+        <c:axId val="454434120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="392408808"/>
+        <c:axId val="454447840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,12 +6033,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392408416"/>
+        <c:crossAx val="454434120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392408416"/>
+        <c:axId val="454434120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6095,7 +6095,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392408808"/>
+        <c:crossAx val="454447840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6109,7 +6109,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8391,16 +8390,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>103042</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331643</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154131</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8784,8 +8783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N1" sqref="L1:N1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16817,7 +16816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
@@ -16970,7 +16969,7 @@
         <f ca="1">AVERAGE(P2:Y2)</f>
         <v>-88</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="9">
         <f ca="1">POWER(10,-((Z2-$B$5)/(10*$B$3)))</f>
         <v>6.2422655134389757E-2</v>
       </c>
@@ -16986,7 +16985,7 @@
         <f ca="1">IF(AB2&gt;15,15,AB2)</f>
         <v>0.20831094154979807</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="10">
         <f ca="1">POWER(10,-((P2-$B$5)/(10*$B$3)))</f>
         <v>6.2422655134389757E-2</v>
       </c>
@@ -16998,7 +16997,7 @@
         <f ca="1">IF(AE2&gt;15,15,AE2)</f>
         <v>6.2422655134389757E-2</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="11">
         <f ca="1">IF(AF2&gt;15,15,AF2)</f>
         <v>0.20831094154979807</v>
       </c>
@@ -17032,15 +17031,15 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:Y12" ca="1" si="2">INDIRECT("I"&amp;RANDBETWEEN($N3,$O3))</f>
-        <v>-93</v>
+        <v>-94</v>
       </c>
       <c r="Q3">
         <f ca="1">INDIRECT("I"&amp;RANDBETWEEN($N3,$O3))</f>
-        <v>-93</v>
+        <v>-94</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-93</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
@@ -17052,7 +17051,7 @@
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-93</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="2"/>
@@ -17060,11 +17059,11 @@
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-93</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="2"/>
-        <v>-93</v>
+        <v>-94</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="2"/>
@@ -17074,7 +17073,7 @@
         <f t="shared" ref="Z3:Z12" ca="1" si="3">AVERAGE(P3:Y3)</f>
         <v>-93.3</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="9">
         <f t="shared" ref="AA3:AA12" ca="1" si="4">POWER(10,-((Z3-$B$5)/(10*$B$3)))</f>
         <v>0.52676625632337659</v>
       </c>
@@ -17090,21 +17089,21 @@
         <f t="shared" ca="1" si="6"/>
         <v>0.64335164026476122</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="10">
         <f t="shared" ref="AE3:AE12" ca="1" si="7">POWER(10,-((P3-$B$5)/(10*$B$3)))</f>
-        <v>0.46686062437965159</v>
+        <v>0.69816206638067102</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" ref="AF3:AF12" ca="1" si="8">POWER(10,-((P3-$C$5)/(10*$C$3)))</f>
-        <v>0.6035697815637775</v>
+        <v>0.74667320990516406</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" ref="AG3:AH12" ca="1" si="9">IF(AE3&gt;15,15,AE3)</f>
-        <v>0.46686062437965159</v>
-      </c>
-      <c r="AH3" s="12">
+        <v>0.69816206638067102</v>
+      </c>
+      <c r="AH3" s="11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6035697815637775</v>
+        <v>0.74667320990516406</v>
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
@@ -17136,7 +17135,7 @@
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-99</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="2"/>
@@ -17144,23 +17143,23 @@
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="2"/>
-        <v>-98</v>
+        <v>-97</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-98</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="2"/>
-        <v>-98</v>
+        <v>-97</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="2"/>
-        <v>-99</v>
+        <v>-94</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="2"/>
@@ -17168,47 +17167,47 @@
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="2"/>
-        <v>-98</v>
+        <v>-96</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="2"/>
-        <v>-99</v>
+        <v>-98</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="3"/>
-        <v>-96.9</v>
-      </c>
-      <c r="AA4" s="10">
+        <v>-96.7</v>
+      </c>
+      <c r="AA4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2427783426251566</v>
+        <v>2.0693433384571414</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3838834165083189</v>
+        <v>1.3262301257424391</v>
       </c>
       <c r="AC4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2427783426251566</v>
+        <v>2.0693433384571414</v>
       </c>
       <c r="AD4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3838834165083189</v>
-      </c>
-      <c r="AE4" s="11">
+        <v>1.3262301257424391</v>
+      </c>
+      <c r="AE4" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0440595018708398</v>
+        <v>5.2215718400145272</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92370575767662011</v>
+        <v>2.163445582114317</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0440595018708398</v>
-      </c>
-      <c r="AH4" s="12">
+        <v>5.2215718400145272</v>
+      </c>
+      <c r="AH4" s="11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.92370575767662011</v>
+        <v>2.163445582114317</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
@@ -17240,15 +17239,15 @@
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-94</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-94</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="2"/>
@@ -17256,11 +17255,11 @@
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="2"/>
@@ -17268,51 +17267,51 @@
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-94</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="3"/>
-        <v>-94.6</v>
-      </c>
-      <c r="AA5" s="10">
+        <v>-94.8</v>
+      </c>
+      <c r="AA5" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88882784057115993</v>
+        <v>0.96332193605027983</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84834483134770078</v>
+        <v>0.88522370348464596</v>
       </c>
       <c r="AC5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88882784057115993</v>
+        <v>0.96332193605027983</v>
       </c>
       <c r="AD5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84834483134770078</v>
-      </c>
-      <c r="AE5" s="11">
+        <v>0.88522370348464596</v>
+      </c>
+      <c r="AE5" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0440595018708398</v>
+        <v>0.69816206638067102</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92370575767662011</v>
+        <v>0.74667320990516406</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0440595018708398</v>
-      </c>
-      <c r="AH5" s="12">
+        <v>0.69816206638067102</v>
+      </c>
+      <c r="AH5" s="11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.92370575767662011</v>
+        <v>0.74667320990516406</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.25">
@@ -17342,61 +17341,61 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-94</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-94</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="2"/>
-        <v>-96</v>
+        <v>-95</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="2"/>
-        <v>-96</v>
+        <v>-95</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="2"/>
-        <v>-96</v>
+        <v>-95</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="2"/>
-        <v>-96</v>
+        <v>-94</v>
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="3"/>
-        <v>-95.2</v>
-      </c>
-      <c r="AA6" s="10">
+        <v>-94.8</v>
+      </c>
+      <c r="AA6" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1315638133562562</v>
+        <v>0.96332193605027983</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9638606867464411</v>
+        <v>0.88522370348464596</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1315638133562562</v>
+        <v>0.96332193605027983</v>
       </c>
       <c r="AD6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9638606867464411</v>
-      </c>
-      <c r="AE6" s="11">
+        <v>0.88522370348464596</v>
+      </c>
+      <c r="AE6" s="10">
         <f t="shared" ca="1" si="7"/>
         <v>0.69816206638067102</v>
       </c>
@@ -17408,7 +17407,7 @@
         <f t="shared" ca="1" si="9"/>
         <v>0.69816206638067102</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="11">
         <f t="shared" ca="1" si="9"/>
         <v>0.74667320990516406</v>
       </c>
@@ -17440,61 +17439,61 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="2"/>
-        <v>-97</v>
+        <v>-99</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="2"/>
-        <v>-99</v>
+        <v>-98</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="2"/>
-        <v>-99</v>
+        <v>-98</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="2"/>
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="2"/>
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="2"/>
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="2"/>
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="2"/>
-        <v>-99</v>
+        <v>-97</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="2"/>
-        <v>-97</v>
+        <v>-99</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="3"/>
-        <v>-98.4</v>
-      </c>
-      <c r="AA7" s="10">
+        <v>-98.1</v>
+      </c>
+      <c r="AA7" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1014729953070193</v>
+        <v>3.6350396793256574</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9041630214051066</v>
+        <v>1.7864184793534137</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1014729953070193</v>
+        <v>3.6350396793256574</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9041630214051066</v>
-      </c>
-      <c r="AE7" s="11">
+        <v>1.7864184793534137</v>
+      </c>
+      <c r="AE7" s="10">
         <f t="shared" ca="1" si="7"/>
         <v>2.3348729503483421</v>
       </c>
@@ -17506,7 +17505,7 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.3348729503483421</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="11">
         <f t="shared" ca="1" si="9"/>
         <v>1.4136432154610448</v>
       </c>
@@ -17532,7 +17531,7 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="9">
         <f t="shared" si="4"/>
         <v>2.6041744628442776E-17</v>
       </c>
@@ -17542,7 +17541,7 @@
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="11">
+      <c r="AE8" s="10">
         <f t="shared" si="7"/>
         <v>2.6041744628442776E-17</v>
       </c>
@@ -17551,7 +17550,7 @@
         <v>1.5390081914534445E-9</v>
       </c>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="12"/>
+      <c r="AH8" s="11"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G9">
@@ -17574,7 +17573,7 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <f t="shared" si="4"/>
         <v>2.6041744628442776E-17</v>
       </c>
@@ -17584,7 +17583,7 @@
       </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="11">
+      <c r="AE9" s="10">
         <f t="shared" si="7"/>
         <v>2.6041744628442776E-17</v>
       </c>
@@ -17593,7 +17592,7 @@
         <v>1.5390081914534445E-9</v>
       </c>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="12"/>
+      <c r="AH9" s="11"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G10">
@@ -17660,7 +17659,7 @@
         <f t="shared" ca="1" si="3"/>
         <v>-102</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="9">
         <f t="shared" ca="1" si="4"/>
         <v>17.462574142352569</v>
       </c>
@@ -17676,7 +17675,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>4.0959554040562391</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AE10" s="10">
         <f t="shared" ca="1" si="7"/>
         <v>17.462574142352569</v>
       </c>
@@ -17688,7 +17687,7 @@
         <f t="shared" ca="1" si="9"/>
         <v>15</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="11">
         <f t="shared" ca="1" si="9"/>
         <v>4.0959554040562391</v>
       </c>
@@ -17714,7 +17713,7 @@
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="9">
         <f t="shared" si="4"/>
         <v>2.6041744628442776E-17</v>
       </c>
@@ -17724,7 +17723,7 @@
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="11">
+      <c r="AE11" s="10">
         <f t="shared" si="7"/>
         <v>2.6041744628442776E-17</v>
       </c>
@@ -17733,7 +17732,7 @@
         <v>1.5390081914534445E-9</v>
       </c>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="12"/>
+      <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12">
@@ -17758,11 +17757,11 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="2"/>
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="2"/>
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="2"/>
@@ -17770,7 +17769,7 @@
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="2"/>
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="2"/>
@@ -17782,7 +17781,7 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="2"/>
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="2"/>
@@ -17790,7 +17789,7 @@
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="2"/>
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="2"/>
@@ -17798,15 +17797,15 @@
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="3"/>
-        <v>-102.3</v>
-      </c>
-      <c r="AA12" s="10">
+        <v>-102.8</v>
+      </c>
+      <c r="AA12" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>19.703299713826517</v>
+        <v>24.094807697644864</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3659237227277359</v>
+        <v>4.8559888904372723</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -17814,23 +17813,23 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3659237227277359</v>
-      </c>
-      <c r="AE12" s="11">
+        <v>4.8559888904372723</v>
+      </c>
+      <c r="AE12" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>17.462574142352569</v>
+        <v>26.114232408763247</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0959554040562391</v>
+        <v>5.0670862965526196</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" ca="1" si="9"/>
         <v>15</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="11">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0959554040562391</v>
+        <v>5.0670862965526196</v>
       </c>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
@@ -17843,18 +17842,18 @@
       <c r="I13">
         <v>-88</v>
       </c>
-      <c r="AA13" s="9" t="s">
+      <c r="AA13" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9" t="s">
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="G14">
